--- a/meta/indicator.xlsx
+++ b/meta/indicator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeder\Dropbox\VID\wicdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Private\gabel\GitHub\wcde\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="indicator" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>past</t>
-  </si>
-  <si>
-    <t>edu2</t>
   </si>
   <si>
     <t>The percentage of the population who are alive for a five-year period in five-year age groups. Available in all scenarios and at all geographical scales. It is expressed as a percentage.</t>
@@ -470,7 +467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -974,48 +971,48 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1317,13 +1314,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1333,18 +1330,17 @@
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="255.5703125" customWidth="1"/>
-    <col min="18" max="18" width="175.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="255.5703125" customWidth="1"/>
+    <col min="17" max="17" width="175.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -1370,40 +1366,37 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="M1" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="O1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="Q1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="R1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1435,32 +1428,29 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>1</v>
+      <c r="M2" t="s">
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="Q2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1492,31 +1482,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1</v>
+      <c r="M3" t="s">
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="Q3" t="s">
-        <v>116</v>
-      </c>
-      <c r="R3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1548,30 +1535,27 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1603,31 +1587,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="Q5" t="s">
-        <v>102</v>
-      </c>
-      <c r="R5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -1659,31 +1640,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="Q6" t="s">
-        <v>103</v>
-      </c>
-      <c r="R6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1712,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1720,26 +1698,23 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>1</v>
+      <c r="M7" t="s">
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="Q7" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1768,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1776,26 +1751,23 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>1</v>
+      <c r="M8" t="s">
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="Q8" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1827,31 +1799,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="M9" t="s">
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="Q9" t="s">
-        <v>120</v>
-      </c>
-      <c r="R9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1877,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1888,29 +1857,26 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>1</v>
+      <c r="M10" t="s">
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="Q10" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="R10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1942,31 +1908,28 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="M11" t="s">
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="Q11" t="s">
-        <v>122</v>
-      </c>
-      <c r="R11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1998,31 +1961,28 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12">
-        <v>1</v>
+      <c r="M12" t="s">
+        <v>66</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="Q12" t="s">
-        <v>123</v>
-      </c>
-      <c r="R12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2057,28 +2017,25 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="Q13" t="s">
-        <v>124</v>
-      </c>
-      <c r="R13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2104,40 +2061,37 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="Q14" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="R14" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -2163,40 +2117,37 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>67</v>
       </c>
       <c r="N15" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Q15" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="R15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2222,40 +2173,37 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>67</v>
       </c>
       <c r="N16" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="Q16" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="R16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2287,33 +2235,30 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>66</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P17" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
         <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>95</v>
@@ -2340,28 +2285,25 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>66</v>
       </c>
       <c r="N18" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2393,28 +2335,25 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>66</v>
       </c>
       <c r="N19" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2446,28 +2385,25 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>66</v>
       </c>
       <c r="N20" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2493,34 +2429,31 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>66</v>
       </c>
       <c r="N21" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2546,34 +2479,31 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>66</v>
       </c>
       <c r="N22" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P22" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2602,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2610,26 +2540,23 @@
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23">
-        <v>1</v>
+      <c r="M23" t="s">
+        <v>65</v>
       </c>
       <c r="N23" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O23" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="P23" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="Q23" t="s">
-        <v>128</v>
-      </c>
-      <c r="R23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2655,38 +2582,35 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O24" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="P24" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="Q24" t="s">
-        <v>129</v>
-      </c>
-      <c r="R24" t="s">
         <v>10</v>
       </c>
-      <c r="S24"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R24"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2715,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2723,26 +2647,23 @@
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="M25">
-        <v>1</v>
+      <c r="M25" t="s">
+        <v>65</v>
       </c>
       <c r="N25" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O25" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="P25" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="Q25" t="s">
-        <v>136</v>
-      </c>
-      <c r="R25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2771,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2779,26 +2700,23 @@
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26">
-        <v>1</v>
+      <c r="M26" t="s">
+        <v>65</v>
       </c>
       <c r="N26" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="P26" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="Q26" t="s">
-        <v>130</v>
-      </c>
-      <c r="R26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -2823,38 +2741,35 @@
       <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="R27" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2883,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2891,26 +2806,23 @@
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28">
-        <v>1</v>
+      <c r="M28" t="s">
+        <v>65</v>
       </c>
       <c r="N28" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="Q28" t="s">
-        <v>132</v>
-      </c>
-      <c r="R28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -2939,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2947,26 +2859,23 @@
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="M29">
-        <v>1</v>
+      <c r="M29" t="s">
+        <v>65</v>
       </c>
       <c r="N29" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="Q29" t="s">
-        <v>133</v>
-      </c>
-      <c r="R29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2995,34 +2904,31 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>65</v>
       </c>
       <c r="N30" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O30" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="Q30" t="s">
-        <v>111</v>
-      </c>
-      <c r="R30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -3051,35 +2957,32 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>65</v>
       </c>
       <c r="N31" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O31" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="Q31" t="s">
-        <v>112</v>
-      </c>
-      <c r="R31" t="s">
         <v>10</v>
       </c>
-      <c r="S31"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R31"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -3108,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3116,22 +3019,19 @@
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="M32">
-        <v>1</v>
+      <c r="M32" t="s">
+        <v>65</v>
       </c>
       <c r="N32" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="P32" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="Q32" t="s">
-        <v>134</v>
-      </c>
-      <c r="R32" t="s">
         <v>58</v>
       </c>
     </row>

--- a/meta/indicator.xlsx
+++ b/meta/indicator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25440" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="indicator" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>nb_KC</author>
+    <author>DELL</author>
   </authors>
   <commentList>
     <comment ref="A27" authorId="0" shapeId="0">
@@ -49,12 +50,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="A31" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Samir: this is available but not sure whether we want to report this?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -149,9 +175,6 @@
     <t>ryl15</t>
   </si>
   <si>
-    <t>Prospective Old-age Dependency Ratio</t>
-  </si>
-  <si>
     <t>podr</t>
   </si>
   <si>
@@ -368,9 +391,6 @@
     <t xml:space="preserve">De facto population by level of educational attainment in a country or region, classified by sex and by broad age groups. Available in all scenarios and at all geographical scales. Figures are expressed as a percentage. </t>
   </si>
   <si>
-    <t>Mean number of years spent in school by age. Available in all scenarios and at all geographical scales. It is expressed in years.</t>
-  </si>
-  <si>
     <t>The difference between female and male mean years of schooling for the population over 15 years of age. Available in all scenarios and at all geographical scales. It is expressed in years.</t>
   </si>
   <si>
@@ -398,77 +418,89 @@
     <t>bmys</t>
   </si>
   <si>
-    <t xml:space="preserve">De facto population in a country, region, or region classified by sex and by five-year age groups. Available in all scenarios and at all geographical scales. Figures are presented in thousands. &lt;br&gt;&lt;br&gt; Source for 1970 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De facto population in a country, region, or region, classified by sex and by broad age groups. Available by level of educational attainment, in all scenarios, and at all geographical scales. Figures are presented in thousands. &lt;br&gt;&lt;br&gt; Source for 1970 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De facto population in a country, region, or region, classified by sex and by five-year age groups. Available by level of educational attainment, in all scenarios, and at all geographical scales. Figures are presented in thousands. &lt;br&gt;&lt;br&gt; Data for 1970 to 2010: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate of growth of the population over the period of one year. Available in all scenarios and at all geographical scales. It is expressed as a percentage. &lt;br&gt;&lt;br&gt; Data for 1970 to 2010: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Represents the portion of population growth (or decline) determined exclusively by births and deaths. Available in all scenarios and at all geographical scales. It is expressed as a percentage. &lt;br&gt;&lt;br&gt; Data for 1970 to 2010: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ratio of males to females in the population by age. Available in all scenarios and at all geographical scales. It is expressed as the number of males per female. &lt;br&gt;&lt;br&gt; Data for 1970 to 2010: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age that divides the population in two parts of equal size: There are as many people with ages above the median as there are with ages below the median. Available in the SSP2 scenario and at all geographical scales. It is expressed in years. &lt;br&gt;&lt;br&gt; Data for 1970 to 2010: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ratio of the youth (0-14) and elderly (65+) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of young and elderly persons per person of working age. &lt;br&gt;&lt;br&gt; Source for 1970 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ratio of the youth (0-14) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of young persons per person of working age. &lt;br&gt;&lt;br&gt; Source for 1970 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ratio of the elderly (65+) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of elderly persons per person of working age. &lt;br&gt;&lt;br&gt; Source for 1970 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>The age at which the remaining life expectancy of the population is the same as it is at the median age in the indicated period. Available in the SSP2 scenario and at all geographical scales. It is expressed in years. &lt;br&gt;&lt;br&gt; Source: &lt;a href="http://www.iiasa.ac.at/web/home/research/researchPrograms/WorldPopulation/PublicationsMediaCoverage/POPNETNewsletter/popnet39.pdf#page=4"&gt;Lutz et al. 2008&lt;/a&gt;</t>
   </si>
   <si>
     <t>The age of a person in a population when remaining life expectancy is 15 years. Available in the SSP2 scenario and at all geographical scales. It is expressed in years. &lt;br&gt;&lt;br&gt; Source: &lt;a href="http://www.iiasa.ac.at/web/home/research/researchPrograms/WorldPopulation/PublicationsMediaCoverage/POPNETNewsletter/popnet39.pdf#page=4"&gt;Lutz et al. 2008&lt;/a&gt;</t>
   </si>
   <si>
-    <t>The ratio of the population with a life expectancy of 15 years or less  over the population above 20 years old with a life expectancy greater than 15 years. Available in the SSP2 scenario and at all geographical scales. &lt;br&gt;&lt;br&gt; Source: &lt;a href="www.iiasa.ac.at/web/home/research/researchPrograms/WorldPopulation/PublicationsMediaCoverage/POPNETNewsletter/popnet42.pdf#page=6"&gt;Sanderson and Scherbov 2010&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The average number of children born in a period to the women of reproductive age (15-49). Available in all scenarios, and at all geographical scales. It is expressed as children per woman. &lt;br&gt;&lt;br&gt; Source for 1970 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The average number of children born in a period to the women of reproductive age (15-49). Available by level of educational attainment, in all scenarios, and at all geographical scales. It is expressed as children per woman. &lt;br&gt;&lt;br&gt; Data for 1970 to 2010: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of live births occurring over a five-year period per 1,000 total population. Available in all scenarios and at all geographical scales. It is expressed as number of births per 1,000 population. &lt;br&gt;&lt;br&gt; Source for 1970 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mean age of mothers at the birth of their children observed in a five-year period. Available by level of educational attainment, in all scenarios and at country level. It is expressed in years. &lt;br&gt;&lt;br&gt; Source for 1970 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of years a newborn is expected to live. Available in all scenarios and at all geographical scales. It is expressed in years. &lt;br&gt;&lt;br&gt; Source for 1970 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of deaths occurring over a five-year period per 1,000 total population. Available in all scenarios and at all geographical scales. It is expressed as number of deaths per 1,000 population. &lt;br&gt;&lt;br&gt; Source for 1970 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of immigrants minus the number of emigrants over a five-year period. Available in all scenarios, and at country level. It is expressed in thousands. Global net migration does not sum up to zero – see the FAQ for more details. &lt;br&gt;&lt;br&gt; Source for 1970 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t>is195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of births occurring to women in a particular age group during a five-year period divided by the number of women in that age group. Available in all scenarios, and at all geographical scales. It is expressed in births per 1,000 women. &lt;br&gt;&lt;br&gt; Source for 1995 to 2010: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2010&lt;/a&gt; </t>
+    <t>is201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De facto population in a country or region, classified by sex and by five-year age groups. Available in all scenarios and at all geographical scales. Figures are presented in thousands. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De facto population in a country or region, classified by sex and by broad age groups. Available by level of educational attainment, in all scenarios, and at all geographical scales. Figures are presented in thousands. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De facto population in a country or region, classified by sex and by five-year age groups. Available by level of educational attainment, in all scenarios, and at all geographical scales. Figures are presented in thousands. &lt;br&gt;&lt;br&gt; Data for 1950 to 2015: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of growth of the population over the period of one year. Available in all scenarios and at all geographical scales. It is expressed as a percentage. &lt;br&gt;&lt;br&gt; Data for 1950 to 2015: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Represents the portion of population growth (or decline) determined exclusively by births and deaths. Available in all scenarios and at all geographical scales. It is expressed as a percentage. &lt;br&gt;&lt;br&gt; Data for 1950 to 2015: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ratio of males to females in the population by age. Available in all scenarios and at all geographical scales. It is expressed as the number of males per female. &lt;br&gt;&lt;br&gt; Data for 1950 to 2015: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ratio of the youth (0-14) and elderly (65+) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of young and elderly persons per person of working age. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ratio of the youth (0-14) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of young persons per person of working age. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Mean number of years spent in school, classified by sex and by five-year age groups. Available in all scenarios and at all geographical scales. It is expressed in years.</t>
+  </si>
+  <si>
+    <t>Mean number of years spent in school, classified by sex and broad age groups. Available in all scenarios and at all geographical scales. It is expressed in years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The average number of children born in a period to the women of reproductive age (15-49). Available in all scenarios, and at all geographical scales. It is expressed as children per woman. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>The average number of children born in a period to the women of reproductive age (15-49). Available by level of educational attainment, in all scenarios, and at all geographical scales. It is expressed as children per woman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of births occurring to women in a particular age group during a five-year period divided by the number of women in that age group. Available in all scenarios, and at all geographical scales. It is expressed in births per 1,000 women. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of live births occurring over a five-year period per 1,000 total population. Available in all scenarios and at all geographical scales. It is expressed as number of births per 1,000 population. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>The mean age of mothers at the birth of their children observed in a five-year period. Available by level of educational attainment, in all scenarios and at country level. It is expressed in years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of years a newborn is expected to live. Available in all scenarios and at all geographical scales. It is expressed in years. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of deaths occurring over a five-year period per 1,000 total population. Available in all scenarios and at all geographical scales. It is expressed as number of deaths per 1,000 population. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of immigrants minus the number of emigrants over a five-year period. Available in all scenarios, and at country level. It is expressed in thousands. Global net migration does not sum up to zero – see the FAQ for more details. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ratio of the elderly (65+) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of elderly persons per person of working age. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Proportion of Population with a Remaining Life Expectancy below 15 Years</t>
+  </si>
+  <si>
+    <t>Proportion of the population with a remaining life expectancy below 15 years in the total population.  Available in the SSP2 scenario and at all geographical scales. Figures are expressed as a percentage. &lt;br&gt;&lt;br&gt; Source: &lt;a href="www.iiasa.ac.at/web/home/research/researchPrograms/WorldPopulation/PublicationsMediaCoverage/POPNETNewsletter/popnet42.pdf#page=6"&gt;Sanderson and Scherbov 2010&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age that divides the population in two parts of equal size: There are as many people with ages above the median as there are with ages below the median. Available in all scenarios and at all geographical scales. It is expressed in years. &lt;br&gt;&lt;br&gt; Data for 1950 to 2015: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +648,26 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -965,10 +1017,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1314,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,21 +1388,22 @@
     <col min="10" max="10" width="6.85546875" customWidth="1"/>
     <col min="11" max="11" width="4.7109375" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="255.5703125" customWidth="1"/>
-    <col min="17" max="17" width="175.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="255.5703125" customWidth="1"/>
+    <col min="18" max="18" width="175.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>88</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1366,37 +1421,40 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1404,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1433,32 +1491,35 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>66</v>
+      <c r="M2">
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="Q2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="R2"/>
+      <c r="S2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1487,31 +1548,34 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>66</v>
+      <c r="M3">
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="Q3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1540,22 +1604,25 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>66</v>
+      <c r="M4">
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4"/>
+        <v>68</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>117</v>
+      </c>
       <c r="R4"/>
+      <c r="S4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1563,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1592,31 +1659,34 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>66</v>
+      <c r="M5">
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1645,31 +1715,34 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>66</v>
+      <c r="M6">
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1698,31 +1771,34 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>65</v>
+      <c r="M7">
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="Q7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1751,23 +1827,26 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>65</v>
+      <c r="M8">
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1775,7 +1854,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1804,23 +1883,26 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
-        <v>66</v>
+      <c r="M9">
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="Q9" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1846,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1857,26 +1939,29 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
-        <v>65</v>
+      <c r="M10">
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="Q10" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10" t="s">
         <v>10</v>
       </c>
-      <c r="R10" t="s">
-        <v>60</v>
+      <c r="S10" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1884,7 +1969,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1913,23 +1998,26 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>66</v>
+      <c r="M11">
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" t="s">
         <v>121</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1937,7 +2025,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1966,23 +2054,26 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
-        <v>66</v>
+      <c r="M12">
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" t="s">
         <v>122</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1990,7 +2081,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2014,28 +2105,31 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
-        <v>66</v>
+      <c r="M13">
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="Q13" t="s">
+        <v>133</v>
+      </c>
+      <c r="R13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2043,996 +2137,1053 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>93</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" t="s">
-        <v>101</v>
-      </c>
-      <c r="O14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>94</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>113</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>135</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>125</v>
+      </c>
+      <c r="R23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>126</v>
+      </c>
+      <c r="R24" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>127</v>
+      </c>
+      <c r="R25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>128</v>
+      </c>
+      <c r="R26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" t="s">
-        <v>60</v>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" t="s">
-        <v>101</v>
-      </c>
-      <c r="O16" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" t="s">
-        <v>60</v>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>130</v>
+      </c>
+      <c r="R28" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" t="s">
-        <v>100</v>
-      </c>
-      <c r="O17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" t="s">
-        <v>104</v>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>131</v>
+      </c>
+      <c r="R29" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" t="s">
-        <v>100</v>
-      </c>
-      <c r="O18" t="s">
-        <v>70</v>
-      </c>
-      <c r="P18" t="s">
-        <v>104</v>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" t="s">
-        <v>100</v>
-      </c>
-      <c r="O19" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" t="s">
-        <v>105</v>
-      </c>
+    <row r="31" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S31" s="2"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" t="s">
-        <v>70</v>
-      </c>
-      <c r="P20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" t="s">
-        <v>100</v>
-      </c>
-      <c r="O21" t="s">
-        <v>70</v>
-      </c>
-      <c r="P21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" t="s">
-        <v>100</v>
-      </c>
-      <c r="O22" t="s">
-        <v>70</v>
-      </c>
-      <c r="P22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N23" t="s">
-        <v>85</v>
-      </c>
-      <c r="O23" t="s">
-        <v>71</v>
-      </c>
-      <c r="P23" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" t="s">
-        <v>85</v>
-      </c>
-      <c r="O24" t="s">
-        <v>71</v>
-      </c>
-      <c r="P24" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>10</v>
-      </c>
-      <c r="R24"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" t="s">
-        <v>85</v>
-      </c>
-      <c r="O25" t="s">
-        <v>71</v>
-      </c>
-      <c r="P25" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" t="s">
-        <v>85</v>
-      </c>
-      <c r="O26" t="s">
-        <v>71</v>
-      </c>
-      <c r="P26" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
-        <v>65</v>
-      </c>
-      <c r="N28" t="s">
-        <v>85</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>64</v>
+      </c>
+      <c r="O32" t="s">
+        <v>84</v>
+      </c>
+      <c r="P32" t="s">
         <v>72</v>
       </c>
-      <c r="P28" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
-        <v>65</v>
-      </c>
-      <c r="N29" t="s">
-        <v>85</v>
-      </c>
-      <c r="O29" t="s">
-        <v>72</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="Q32" t="s">
         <v>132</v>
       </c>
-      <c r="Q29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="R32" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30" t="s">
-        <v>65</v>
-      </c>
-      <c r="N30" t="s">
-        <v>85</v>
-      </c>
-      <c r="O30" t="s">
-        <v>72</v>
-      </c>
-      <c r="P30" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" t="s">
-        <v>85</v>
-      </c>
-      <c r="O31" t="s">
-        <v>72</v>
-      </c>
-      <c r="P31" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>10</v>
-      </c>
-      <c r="R31"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32" t="s">
-        <v>65</v>
-      </c>
-      <c r="N32" t="s">
-        <v>85</v>
-      </c>
-      <c r="O32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P32" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/meta/indicator.xlsx
+++ b/meta/indicator.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A49F2-4B89-43D6-BA31-DA8E97F4AC92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>nb_KC</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="A27" authorId="0" shapeId="0">
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="1" shapeId="0">
+    <comment ref="A31" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="1" shapeId="0">
+    <comment ref="A33" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -488,9 +489,6 @@
     <t>easfr</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of births occurring to women in a particular age group by level of education attainment during a five-year period divided by the number of women in that age group. Available in all scenarios, and at all geographical scales. It is expressed in births per 1,000 women. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>Percentage Points</t>
   </si>
   <si>
@@ -510,12 +508,15 @@
   </si>
   <si>
     <t>ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of births occurring to women in a particular age group by level of education attainment during a five-year period divided by the number of women in that age group. Available in all scenarios, and at all geographical scales. It is expressed in births per 1,000 women. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1143,6 +1144,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1178,6 +1196,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1353,11 +1388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1425,7 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1800,7 +1835,7 @@
         <v>64</v>
       </c>
       <c r="Q8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2126,7 +2161,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>85</v>
@@ -2179,10 +2214,10 @@
         <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2447,7 +2482,7 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2489,7 +2524,7 @@
         <v>60</v>
       </c>
       <c r="Q21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2500,7 +2535,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2542,7 +2577,7 @@
         <v>60</v>
       </c>
       <c r="Q22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -3125,7 +3160,7 @@
         <v>61</v>
       </c>
       <c r="Q33" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/meta/indicator.xlsx
+++ b/meta/indicator.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A49F2-4B89-43D6-BA31-DA8E97F4AC92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="indicator" sheetId="1" r:id="rId1"/>
@@ -20,13 +19,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>nb_KC</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A32" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="132">
   <si>
     <t>name</t>
   </si>
@@ -183,12 +182,6 @@
     <t>odr</t>
   </si>
   <si>
-    <t>Prospective Median Age</t>
-  </si>
-  <si>
-    <t>pmage</t>
-  </si>
-  <si>
     <t>Mean Years of Schooling by Age</t>
   </si>
   <si>
@@ -409,9 +402,6 @@
   </si>
   <si>
     <t>bmys</t>
-  </si>
-  <si>
-    <t>The age at which the remaining life expectancy of the population is the same as it is at the median age in the indicated period. Available in the SSP2 scenario and at all geographical scales. It is expressed in years. &lt;br&gt;&lt;br&gt; Source: &lt;a href="http://www.iiasa.ac.at/web/home/research/researchPrograms/WorldPopulation/PublicationsMediaCoverage/POPNETNewsletter/popnet39.pdf#page=4"&gt;Lutz et al. 2008&lt;/a&gt;</t>
   </si>
   <si>
     <t>The age of a person in a population when remaining life expectancy is 15 years. Available in the SSP2 scenario and at all geographical scales. It is expressed in years. &lt;br&gt;&lt;br&gt; Source: &lt;a href="http://www.iiasa.ac.at/web/home/research/researchPrograms/WorldPopulation/PublicationsMediaCoverage/POPNETNewsletter/popnet39.pdf#page=4"&gt;Lutz et al. 2008&lt;/a&gt;</t>
@@ -516,7 +506,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1144,23 +1134,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1196,23 +1169,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1388,11 +1344,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,16 +1372,16 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1443,25 +1399,25 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
       <c r="O1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q1" t="s">
         <v>6</v>
@@ -1475,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1508,27 +1464,27 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1561,27 +1517,27 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1614,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1634,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1667,27 +1623,27 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
         <v>90</v>
-      </c>
-      <c r="P5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1720,27 +1676,27 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1773,27 +1729,27 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1826,16 +1782,16 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1846,7 +1802,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1879,16 +1835,16 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1899,7 +1855,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1920,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1932,16 +1888,16 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1952,7 +1908,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1985,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2005,7 +1961,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2038,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2058,7 +2014,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2091,30 +2047,30 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2138,33 +2094,33 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2197,33 +2153,33 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q15" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2232,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2241,45 +2197,45 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="Q16" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2303,27 +2259,27 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2332,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2356,16 +2312,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q18" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2376,7 +2332,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2409,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2429,7 +2385,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2447,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2462,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q20" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2482,7 +2438,7 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2515,16 +2471,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2535,7 +2491,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2553,42 +2509,42 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q22" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2606,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2615,39 +2571,39 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2659,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2668,22 +2624,22 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2694,13 +2650,13 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2727,16 +2683,16 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2747,7 +2703,7 @@
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2780,16 +2736,16 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2800,7 +2756,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2815,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2833,16 +2789,16 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2853,7 +2809,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2868,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2886,16 +2842,16 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2918,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2939,27 +2895,27 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q29" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2977,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2986,51 +2942,51 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3039,33 +2995,33 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q31" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3080,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3092,75 +3048,22 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>55</v>
-      </c>
-      <c r="O33" t="s">
-        <v>75</v>
-      </c>
-      <c r="P33" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/meta/indicator.xlsx
+++ b/meta/indicator.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5ED3E-7380-4145-A307-7CA73798C04B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>nb_KC</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="A26" authorId="0" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="1" shapeId="0">
+    <comment ref="A30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="1" shapeId="0">
+    <comment ref="A32" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -506,7 +507,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1134,6 +1135,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1169,6 +1187,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1344,11 +1379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2135,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>

--- a/meta/indicator.xlsx
+++ b/meta/indicator.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5ED3E-7380-4145-A307-7CA73798C04B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="indicator" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>nb_KC</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A30" authorId="1">
       <text>
         <r>
           <rPr>
@@ -76,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A32" authorId="1">
       <text>
         <r>
           <rPr>
@@ -507,7 +501,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1102,7 +1096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1135,26 +1129,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1187,23 +1164,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1379,11 +1339,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>

--- a/meta/indicator.xlsx
+++ b/meta/indicator.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13500"/>
   </bookViews>
@@ -20,7 +25,7 @@
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="A26" authorId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="1">
+    <comment ref="A30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="1">
+    <comment ref="A32" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,9 +449,6 @@
     <t xml:space="preserve">Number of live births occurring over a five-year period per 1,000 total population. Available in all scenarios and at all geographical scales. It is expressed as number of births per 1,000 population. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
   </si>
   <si>
-    <t>The mean age of mothers at the birth of their children observed in a five-year period. Available by level of educational attainment, in all scenarios and at country level. It is expressed in years.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The number of years a newborn is expected to live. Available in all scenarios and at all geographical scales. It is expressed in years. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
   </si>
   <si>
@@ -496,12 +498,15 @@
   </si>
   <si>
     <t xml:space="preserve">Number of births occurring to women in a particular age group by level of education attainment during a five-year period divided by the number of women in that age group. Available in all scenarios, and at all geographical scales. It is expressed in births per 1,000 women. </t>
+  </si>
+  <si>
+    <t>The mean age of mothers at the birth of their children observed in a five-year period. Available in all scenarios and at country level. It is expressed in years.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1096,7 +1101,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,7 +1136,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1343,7 +1348,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1381,7 @@
         <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1786,7 +1791,7 @@
         <v>62</v>
       </c>
       <c r="Q8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1874,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1883,16 +1888,16 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2051,7 +2056,7 @@
         <v>57</v>
       </c>
       <c r="Q13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2059,7 +2064,7 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
@@ -2109,13 +2114,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2157,7 +2162,7 @@
         <v>63</v>
       </c>
       <c r="Q15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2380,7 +2385,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2422,7 +2427,7 @@
         <v>58</v>
       </c>
       <c r="Q20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2433,7 +2438,7 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2475,7 +2480,7 @@
         <v>58</v>
       </c>
       <c r="Q21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2740,7 +2745,7 @@
         <v>59</v>
       </c>
       <c r="Q26" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2793,7 +2798,7 @@
         <v>60</v>
       </c>
       <c r="Q27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2846,7 +2851,7 @@
         <v>60</v>
       </c>
       <c r="Q28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2969,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3005,15 +3010,15 @@
         <v>61</v>
       </c>
       <c r="Q31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
         <v>122</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
       </c>
       <c r="C32" t="s">
         <v>78</v>
@@ -3058,7 +3063,7 @@
         <v>59</v>
       </c>
       <c r="Q32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/meta/indicator.xlsx
+++ b/meta/indicator.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Dropbox\WCDE for Guy\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EAD74E-5390-46E2-A667-96F8317B73C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator" sheetId="1" r:id="rId1"/>
@@ -18,94 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>nb_KC</author>
-    <author>DELL</author>
-  </authors>
-  <commentList>
-    <comment ref="A26" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>nb_KC:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DELETE (for now)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A30" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Samir: this is available but not sure whether we want to report this?
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A32" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Samir: this is available but not sure whether we want to report this?
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="145">
   <si>
     <t>name</t>
   </si>
@@ -368,9 +283,6 @@
     <t>Age-Specific Survival Ratio by Education</t>
   </si>
   <si>
-    <t>Net Migration</t>
-  </si>
-  <si>
     <t>Population &amp; Human Capital Stocks</t>
   </si>
   <si>
@@ -410,66 +322,21 @@
     <t>is201</t>
   </si>
   <si>
-    <t xml:space="preserve">De facto population in a country or region, classified by sex and by five-year age groups. Available in all scenarios and at all geographical scales. Figures are presented in thousands. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De facto population in a country or region, classified by sex and by broad age groups. Available by level of educational attainment, in all scenarios, and at all geographical scales. Figures are presented in thousands. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De facto population in a country or region, classified by sex and by five-year age groups. Available by level of educational attainment, in all scenarios, and at all geographical scales. Figures are presented in thousands. &lt;br&gt;&lt;br&gt; Data for 1950 to 2015: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate of growth of the population over the period of one year. Available in all scenarios and at all geographical scales. It is expressed as a percentage. &lt;br&gt;&lt;br&gt; Data for 1950 to 2015: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ratio of males to females in the population by age. Available in all scenarios and at all geographical scales. It is expressed as the number of males per female. &lt;br&gt;&lt;br&gt; Data for 1950 to 2015: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ratio of the youth (0-14) and elderly (65+) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of young and elderly persons per person of working age. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ratio of the youth (0-14) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of young persons per person of working age. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>Mean number of years spent in school, classified by sex and by five-year age groups. Available in all scenarios and at all geographical scales. It is expressed in years.</t>
   </si>
   <si>
     <t>Mean number of years spent in school, classified by sex and broad age groups. Available in all scenarios and at all geographical scales. It is expressed in years.</t>
   </si>
   <si>
-    <t xml:space="preserve">The average number of children born in a period to the women of reproductive age (15-49). Available in all scenarios, and at all geographical scales. It is expressed as children per woman. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>The average number of children born in a period to the women of reproductive age (15-49). Available by level of educational attainment, in all scenarios, and at all geographical scales. It is expressed as children per woman.</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of births occurring to women in a particular age group during a five-year period divided by the number of women in that age group. Available in all scenarios, and at all geographical scales. It is expressed in births per 1,000 women. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of live births occurring over a five-year period per 1,000 total population. Available in all scenarios and at all geographical scales. It is expressed as number of births per 1,000 population. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of years a newborn is expected to live. Available in all scenarios and at all geographical scales. It is expressed in years. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of deaths occurring over a five-year period per 1,000 total population. Available in all scenarios and at all geographical scales. It is expressed as number of deaths per 1,000 population. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of immigrants minus the number of emigrants over a five-year period. Available in all scenarios, and at country level. It is expressed in thousands. Global net migration does not sum up to zero – see the FAQ for more details. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ratio of the elderly (65+) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of elderly persons per person of working age. &lt;br&gt;&lt;br&gt; Source for 1950 to 2015: &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>Proportion of Population with a Remaining Life Expectancy below 15 Years</t>
   </si>
   <si>
     <t>Proportion of the population with a remaining life expectancy below 15 years in the total population.  Available in the SSP2 scenario and at all geographical scales. Figures are expressed as a percentage. &lt;br&gt;&lt;br&gt; Source: &lt;a href="www.iiasa.ac.at/web/home/research/researchPrograms/WorldPopulation/PublicationsMediaCoverage/POPNETNewsletter/popnet42.pdf#page=6"&gt;Sanderson and Scherbov 2010&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Age that divides the population in two parts of equal size: There are as many people with ages above the median as there are with ages below the median. Available in all scenarios and at all geographical scales. It is expressed in years. &lt;br&gt;&lt;br&gt; Data for 1950 to 2015: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>Age-Specific Fertility Rate by Education</t>
   </si>
   <si>
@@ -491,9 +358,6 @@
     <t>ryl15</t>
   </si>
   <si>
-    <t xml:space="preserve">Represents the portion of population growth (or decline) determined exclusively by births and deaths. Available in all scenarios and at all geographical scales. It is expressed per 1,000 population annually. &lt;br&gt;&lt;br&gt; Data for 1950 to 2015: Based on &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;UN Population Division, World Population Prospects 2017&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
@@ -501,13 +365,139 @@
   </si>
   <si>
     <t>The mean age of mothers at the birth of their children observed in a five-year period. Available in all scenarios and at country level. It is expressed in years.</t>
+  </si>
+  <si>
+    <t>emacb</t>
+  </si>
+  <si>
+    <t>netedu</t>
+  </si>
+  <si>
+    <t>De facto population in a country or region, classified by sex and by five-year age groups. Available in all scenarios and at all geographical scales. Figures are presented in thousands.</t>
+  </si>
+  <si>
+    <t>De facto population in a country or region, classified by sex and by broad age groups. Available by level of educational attainment, in all scenarios, and at all geographical scales. Figures are presented in thousands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De facto population in a country or region, classified by sex and by five-year age groups. Available by level of educational attainment, in all scenarios, and at all geographical scales. Figures are presented in thousands. </t>
+  </si>
+  <si>
+    <t>Rate of growth of the population over the period of one year. Available in all scenarios and at all geographical scales. It is expressed as a percentage.</t>
+  </si>
+  <si>
+    <t>Represents the portion of population growth (or decline) determined exclusively by births and deaths. Available in all scenarios and at all geographical scales. It is expressed per 1,000 population annually.</t>
+  </si>
+  <si>
+    <t>The ratio of males to females in the population by age. Available in all scenarios and at all geographical scales. It is expressed as the number of males per female.</t>
+  </si>
+  <si>
+    <t>Age that divides the population in two parts of equal size: There are as many people with ages above the median as there are with ages below the median. Available in all scenarios and at all geographical scales.</t>
+  </si>
+  <si>
+    <t>The ratio of the youth (0-14) and elderly (65+) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of young and elderly persons per person of working age.</t>
+  </si>
+  <si>
+    <t>The ratio of the youth (0-14) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of young persons per person of working age.</t>
+  </si>
+  <si>
+    <t>The ratio of the elderly (65+) population over the working age (15-64) population. Available in all scenarios and at all geographical scales. It is expressed as the number of elderly persons per person of working age.</t>
+  </si>
+  <si>
+    <t>The average number of children born in a period to the women of reproductive age (15-49). Available in all scenarios, and at all geographical scales. It is expressed as children per woman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of births occurring to women in a particular age group during a five-year period divided by the number of women in that age group. Available in all scenarios, and at all geographical scales. It is expressed in births per 1,000 women. </t>
+  </si>
+  <si>
+    <t>Number of live births occurring over a five-year period per 1,000 total population. Available in all scenarios and at all geographical scales. It is expressed as number of births per 1,000 population.</t>
+  </si>
+  <si>
+    <t>The number of years a newborn is expected to live. Available in all scenarios and at all geographical scales. It is expressed in years.</t>
+  </si>
+  <si>
+    <t>Number of deaths occurring over a five-year period per 1,000 total population. Available in all scenarios and at all geographical scales. It is expressed as number of deaths per 1,000 population.</t>
+  </si>
+  <si>
+    <r>
+      <t>The number of immigrants minus the number of emigrants over a five-year period. Available in all scenarios, and at country level. It is expressed in thousands.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Global net migration does not sum up to zero – see the FAQ for more details.</t>
+    </r>
+  </si>
+  <si>
+    <t>The mean age of mothers at the birth of their children observed in a five-year period. Available by level of educational attainment, in all scenarios and at country level. It is expressed in years.</t>
+  </si>
+  <si>
+    <t>Mean Age at Childbearing by Education</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The number of emigrants over a five-year period. Available in all scenarios, and at country level. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It is expressed in thousands.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The number of immigrants over a five-year period. Available in all scenarios, and at country level. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It is expressed in thousands.</t>
+    </r>
+  </si>
+  <si>
+    <t>The number of immigrants minus the number of emigrants over a five-year period. Available by level of education, in all scenarios, and at country level. It is expressed in thousands.</t>
+  </si>
+  <si>
+    <t>Net Migration Flows</t>
+  </si>
+  <si>
+    <t>Emigration Flows</t>
+  </si>
+  <si>
+    <t>Immigration Flows</t>
+  </si>
+  <si>
+    <t>Net Migration Flows by Education</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>emi</t>
+  </si>
+  <si>
+    <t>imm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,21 +633,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,6 +812,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -998,8 +993,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1059,9 +1057,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1099,9 +1097,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1136,7 +1134,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,7 +1169,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1344,33 +1342,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="255.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" customWidth="1"/>
+    <col min="12" max="12" width="4.7265625" customWidth="1"/>
+    <col min="13" max="13" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1796875" customWidth="1"/>
+    <col min="15" max="15" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="255.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1405,10 +1404,10 @@
         <v>51</v>
       </c>
       <c r="L1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="N1" t="s">
         <v>52</v>
@@ -1423,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1458,25 +1457,25 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2" t="s">
         <v>57</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1511,25 +1510,25 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
         <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1564,25 +1563,25 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" t="s">
         <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
         <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1617,25 +1616,25 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
         <v>0</v>
       </c>
       <c r="N5" t="s">
         <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
         <v>58</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1670,25 +1669,25 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="N6" t="s">
         <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
         <v>58</v>
       </c>
       <c r="Q6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1723,9 +1722,9 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" t="s">
@@ -1738,10 +1737,10 @@
         <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1776,9 +1775,9 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" t="s">
@@ -1791,10 +1790,10 @@
         <v>62</v>
       </c>
       <c r="Q8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1829,25 +1828,25 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s">
         <v>57</v>
       </c>
       <c r="Q9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1882,25 +1881,25 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" t="s">
         <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s">
         <v>57</v>
       </c>
       <c r="Q10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1935,25 +1934,25 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" t="s">
         <v>54</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
         <v>57</v>
       </c>
       <c r="Q11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1988,25 +1987,25 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" t="s">
         <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
         <v>57</v>
       </c>
       <c r="Q12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2041,30 +2040,30 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" t="s">
         <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P13" t="s">
         <v>57</v>
       </c>
       <c r="Q13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
@@ -2094,33 +2093,33 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" t="s">
         <v>55</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s">
         <v>63</v>
       </c>
       <c r="Q14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2147,25 +2146,25 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" t="s">
         <v>55</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
         <v>63</v>
       </c>
       <c r="Q15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2200,30 +2199,30 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
         <v>0</v>
       </c>
       <c r="N16" t="s">
         <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s">
         <v>58</v>
       </c>
       <c r="Q16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
         <v>97</v>
-      </c>
-      <c r="B17" t="s">
-        <v>98</v>
       </c>
       <c r="C17" t="s">
         <v>83</v>
@@ -2253,25 +2252,25 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <v>0</v>
       </c>
       <c r="N17" t="s">
         <v>54</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P17" t="s">
         <v>58</v>
       </c>
       <c r="Q17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2306,25 +2305,25 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <v>0</v>
       </c>
       <c r="N18" t="s">
         <v>54</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P18" t="s">
         <v>58</v>
       </c>
       <c r="Q18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2359,25 +2358,25 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
         <v>0</v>
       </c>
       <c r="N19" t="s">
         <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P19" t="s">
         <v>58</v>
       </c>
       <c r="Q19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2412,25 +2411,25 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
         <v>0</v>
       </c>
       <c r="N20" t="s">
         <v>54</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P20" t="s">
         <v>58</v>
       </c>
       <c r="Q20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2465,25 +2464,25 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <v>0</v>
       </c>
       <c r="N21" t="s">
         <v>54</v>
       </c>
       <c r="O21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P21" t="s">
         <v>58</v>
       </c>
       <c r="Q21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2518,9 +2517,9 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <v>1</v>
       </c>
       <c r="N22" t="s">
@@ -2533,10 +2532,10 @@
         <v>59</v>
       </c>
       <c r="Q22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2573,7 +2572,7 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <v>1</v>
       </c>
       <c r="N23" t="s">
@@ -2586,10 +2585,10 @@
         <v>59</v>
       </c>
       <c r="Q23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2624,9 +2623,9 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <v>1</v>
       </c>
       <c r="N24" t="s">
@@ -2639,10 +2638,10 @@
         <v>59</v>
       </c>
       <c r="Q24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2677,9 +2676,9 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
         <v>1</v>
       </c>
       <c r="N25" t="s">
@@ -2692,10 +2691,10 @@
         <v>59</v>
       </c>
       <c r="Q25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2730,9 +2729,9 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
         <v>1</v>
       </c>
       <c r="N26" t="s">
@@ -2745,10 +2744,10 @@
         <v>59</v>
       </c>
       <c r="Q26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2783,9 +2782,9 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
         <v>1</v>
       </c>
       <c r="N27" t="s">
@@ -2798,10 +2797,10 @@
         <v>60</v>
       </c>
       <c r="Q27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2836,9 +2835,9 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
         <v>1</v>
       </c>
       <c r="N28" t="s">
@@ -2851,10 +2850,10 @@
         <v>60</v>
       </c>
       <c r="Q28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2889,9 +2888,9 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
         <v>1</v>
       </c>
       <c r="N29" t="s">
@@ -2904,10 +2903,10 @@
         <v>60</v>
       </c>
       <c r="Q29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -2944,7 +2943,7 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>0</v>
       </c>
       <c r="N30" t="s">
@@ -2957,12 +2956,12 @@
         <v>60</v>
       </c>
       <c r="Q30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
@@ -2995,9 +2994,9 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
         <v>1</v>
       </c>
       <c r="N31" t="s">
@@ -3010,15 +3009,15 @@
         <v>61</v>
       </c>
       <c r="Q31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
         <v>78</v>
@@ -3050,7 +3049,7 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <v>0</v>
       </c>
       <c r="N32" t="s">
@@ -3063,12 +3062,223 @@
         <v>59</v>
       </c>
       <c r="Q32" t="s">
-        <v>130</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/meta/indicator.xlsx
+++ b/meta/indicator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Dropbox\WCDE for Guy\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\mig\Data Explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EAD74E-5390-46E2-A667-96F8317B73C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF76A11B-6067-4EC7-A318-F45ACD3C9EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator" sheetId="1" r:id="rId1"/>
@@ -1345,31 +1345,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1796875" customWidth="1"/>
-    <col min="6" max="6" width="5.26953125" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="4.453125" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" customWidth="1"/>
-    <col min="12" max="12" width="4.7265625" customWidth="1"/>
-    <col min="13" max="13" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1796875" customWidth="1"/>
-    <col min="15" max="15" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" customWidth="1"/>
+    <col min="15" max="15" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="255.54296875" customWidth="1"/>
+    <col min="17" max="17" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
@@ -1899,7 +1899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
@@ -2111,7 +2111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
@@ -2164,7 +2164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -2535,7 +2535,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
@@ -2641,7 +2641,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -2694,7 +2694,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -2747,7 +2747,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -2800,7 +2800,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -2906,7 +2906,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -3012,7 +3012,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>134</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>140</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>141</v>
       </c>
